--- a/APPSHEET/EXCEL/patrimonio_baja_melo1.xlsx
+++ b/APPSHEET/EXCEL/patrimonio_baja_melo1.xlsx
@@ -217,7 +217,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">199</t>
           </r>
         </is>
       </c>
@@ -226,7 +226,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">2023-08-11</t>
+            <t xml:space="preserve">2023-11-08 11:13:36</t>
           </r>
         </is>
       </c>
@@ -235,7 +235,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">TOALLA BLANCA-(INSUMO)</t>
+            <t xml:space="preserve">SABANA-(INSUMO)</t>
           </r>
         </is>
       </c>
@@ -244,7 +244,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">QUEMADO</t>
+            <t xml:space="preserve">SIN USO</t>
           </r>
         </is>
       </c>
@@ -253,7 +253,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">PIEZA 1</t>
+            <t xml:space="preserve">GENERAL</t>
           </r>
         </is>
       </c>
@@ -262,7 +262,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">sin-referencia</t>
+            <t xml:space="preserve">sab</t>
           </r>
         </is>
       </c>
@@ -271,7 +271,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">10</t>
+            <t xml:space="preserve">5</t>
           </r>
         </is>
       </c>
@@ -280,7 +280,7 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">65000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
@@ -289,104 +289,21 @@
           <r>
             <rPr>
        </rPr>
-            <t xml:space="preserve">650000</t>
+            <t xml:space="preserve">0</t>
           </r>
         </is>
       </c>
     </row>
-    <row r="3" customHeight="1" ht="15">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">3</t>
-          </r>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">2023-08-11</t>
-          </r>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">AIRE TOKIO-(PATRIMONIO)</t>
-          </r>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">SE MOJO</t>
-          </r>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">PIEZA 2</t>
-          </r>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">sin-ref</t>
-          </r>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1</t>
-          </r>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1500000</t>
-          </r>
-        </is>
-      </c>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-       </rPr>
-            <t xml:space="preserve">1500000</t>
-          </r>
-        </is>
-      </c>
-    </row>
-    <row r="4" customHeight="1" ht="380">
-      <c r="A4" s="3" t="inlineStr"/>
-      <c r="B4" s="3" t="inlineStr"/>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="3" t="inlineStr"/>
-      <c r="G4" s="3" t="inlineStr"/>
-      <c r="H4" s="3" t="inlineStr"/>
-      <c r="I4" s="3" t="inlineStr"/>
+    <row r="3" customHeight="1" ht="380">
+      <c r="A3" s="3" t="inlineStr"/>
+      <c r="B3" s="3" t="inlineStr"/>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr"/>
+      <c r="F3" s="3" t="inlineStr"/>
+      <c r="G3" s="3" t="inlineStr"/>
+      <c r="H3" s="3" t="inlineStr"/>
+      <c r="I3" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.0" header="0.0" footer="0.0"/>
